--- a/Data_inputs/PSERS_MemberData_AV2015.xlsx
+++ b/Data_inputs/PSERS_MemberData_AV2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="770" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="770" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="20" r:id="rId1"/>
@@ -7440,8 +7440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8692,7 +8692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>

--- a/Data_inputs/PSERS_MemberData_AV2015.xlsx
+++ b/Data_inputs/PSERS_MemberData_AV2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="770" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="770" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="20" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="283">
   <si>
     <t>TOC</t>
   </si>
@@ -2085,6 +2085,9 @@
   </si>
   <si>
     <t>E104</t>
+  </si>
+  <si>
+    <t>RS3</t>
   </si>
 </sst>
 </file>
@@ -2425,7 +2428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2815,6 +2818,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7440,8 +7444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10215,8 +10219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10264,8 +10268,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>98</v>
+      <c r="A6" s="139" t="s">
+        <v>282</v>
       </c>
       <c r="B6" s="124" t="s">
         <v>99</v>
